--- a/Keyword wise Data.xlsx
+++ b/Keyword wise Data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veloxn Work\MamtaProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E15AF6-025A-4D8F-9E8A-6F59BD3AF768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8EEEC0-21F2-4BEE-BF92-BBF8784DA7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBB24F84-D414-4642-87F4-270D8AE96644}"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsapp Marketing " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2010,4 +2014,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791AD79-A43B-4F8E-9845-676A43E5EB86}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B91166-EC60-4249-9357-7FB6CA8F6EF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB0EC37-60BF-4BC9-B229-4A09A141A030}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2FBF3A-0FAC-4BF4-B249-E5D6217582D7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>